--- a/tft/templates/tft/summary.xlsx
+++ b/tft/templates/tft/summary.xlsx
@@ -303,7 +303,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -375,7 +375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="83.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
